--- a/data/trans_bre/P36B02_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P36B02_R-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.707597523041069</v>
+        <v>-3.976464581612855</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.768909706997291</v>
+        <v>-5.905747725531938</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.845942772261282</v>
+        <v>-6.978740670043592</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.859172050479207</v>
+        <v>-1.95501320785531</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.03878652348929111</v>
+        <v>-0.04149882399950393</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.06078895615556645</v>
+        <v>-0.06169011158799398</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.07109727676506854</v>
+        <v>-0.07257485535277759</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.02044067495984193</v>
+        <v>-0.02127083203555975</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.39247048668109</v>
+        <v>2.222555846224751</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9411226890040894</v>
+        <v>0.8965178600069648</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.1328249679348061</v>
+        <v>0.1823681468282114</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.67757295730332</v>
+        <v>11.57157773407045</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.0257213669604024</v>
+        <v>0.02399280990581404</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009724966563627858</v>
+        <v>0.009577501046315846</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.001595041945157069</v>
+        <v>0.001843440743401597</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1435830137369698</v>
+        <v>0.1427017912062762</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.340915676254764</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.203105757922819</v>
+        <v>2.20310575792283</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001898554091791022</v>
@@ -749,7 +749,7 @@
         <v>0.04854848012418148</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.02533799470451184</v>
+        <v>0.02533799470451197</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.359509176246316</v>
+        <v>-2.382255232498764</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.542839880364615</v>
+        <v>-4.537635989063999</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.266270253149279</v>
+        <v>1.318575682580628</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.939702931862425</v>
+        <v>-2.52209560810965</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.02495886937405196</v>
+        <v>-0.02503722896961044</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.04848369228985144</v>
+        <v>-0.04828321757521076</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01403144719212812</v>
+        <v>0.01464028727998313</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03321034674396514</v>
+        <v>-0.02799439673775914</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.742471918265964</v>
+        <v>2.510594912138509</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.829598818374229</v>
+        <v>1.989438329343862</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.449944950282656</v>
+        <v>7.672002876554615</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.506499262903437</v>
+        <v>7.716577893196567</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02942618857836037</v>
+        <v>0.02705416030022069</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02017798463698049</v>
+        <v>0.02164859971071764</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08613746530182102</v>
+        <v>0.08789155520328136</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.09104998875107261</v>
+        <v>0.09174826694275763</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1581977158241138</v>
+        <v>-0.07250183471165479</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.067084890696105</v>
+        <v>-2.258237269432655</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9067613008073562</v>
+        <v>0.5942621236072229</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.028410351592898</v>
+        <v>-3.662361215142317</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.001230802400107519</v>
+        <v>-0.0007421497008914287</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.02164938323396263</v>
+        <v>-0.02388128810218158</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01020750207662456</v>
+        <v>0.006529030558242313</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.044390465538833</v>
+        <v>-0.04085175046701257</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.762452684778433</v>
+        <v>5.59640031876029</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.213890286347872</v>
+        <v>3.103172772999507</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.971141505053369</v>
+        <v>6.454553693955351</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.440643947160861</v>
+        <v>4.118966249683723</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.06404148634332391</v>
+        <v>0.06201382720009039</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03499296358707123</v>
+        <v>0.03380108558647295</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07942793671713748</v>
+        <v>0.07332898359956649</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.04049895662514993</v>
+        <v>0.04864711431520244</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.244512047247006</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.697013392221536</v>
+        <v>1.697013392221558</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03098201436616137</v>
@@ -949,7 +949,7 @@
         <v>0.03620859237476938</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.01942814174249568</v>
+        <v>0.01942814174249594</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.3892600045974498</v>
+        <v>-0.4687527967008168</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.645436844333255</v>
+        <v>-1.634350007111938</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03392145514864749</v>
+        <v>0.001857617606134968</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.340834537339103</v>
+        <v>-1.499722546357692</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.004108512635158216</v>
+        <v>-0.005054494105385741</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.01734085812269616</v>
+        <v>-0.01739245441703434</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.000571263550006696</v>
+        <v>0.0001679440145997834</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.01541949027902774</v>
+        <v>-0.01621551724791388</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.290452587234699</v>
+        <v>6.569747566751845</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.654907755714048</v>
+        <v>4.484962014149492</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.390183783626606</v>
+        <v>6.587896316952145</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.982267421737029</v>
+        <v>4.878486264367745</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07055315467920269</v>
+        <v>0.07357678282352136</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05193954758364104</v>
+        <v>0.04970334804746858</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07290439862624513</v>
+        <v>0.07563521205235373</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.058587695809515</v>
+        <v>0.05719685905222771</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.950783031205161</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.863331901612653</v>
+        <v>1.863331901612664</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002152950785770652</v>
@@ -1049,7 +1049,7 @@
         <v>0.02119815443135906</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.02183065037439897</v>
+        <v>0.02183065037439911</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.477327133811448</v>
+        <v>-3.423707328726607</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.896074317126058</v>
+        <v>1.645801972442395</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.390564177331578</v>
+        <v>-1.668410193510677</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.636492647741832</v>
+        <v>-1.839326539441165</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.03730294171776836</v>
+        <v>-0.03646494536232737</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02063903850573411</v>
+        <v>0.0177736778490656</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.01488013912907509</v>
+        <v>-0.01786700678897304</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.01879621024225796</v>
+        <v>-0.02066790408214583</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.090281930858692</v>
+        <v>4.314331569266347</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.813772723342018</v>
+        <v>8.456195528267751</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.219420226052244</v>
+        <v>5.879043177288438</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.33137313774316</v>
+        <v>5.369173584124833</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04537103422510898</v>
+        <v>0.04814599050256205</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1003930499712643</v>
+        <v>0.09605345973057772</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05785105852977455</v>
+        <v>0.06564607202523691</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.06352823553404154</v>
+        <v>0.06492707114633926</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-1.340691233455482</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1.64951413889256</v>
+        <v>1.649514138892538</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03292750108798254</v>
@@ -1149,7 +1149,7 @@
         <v>-0.01394427415496498</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.01868746757230776</v>
+        <v>0.01868746757230751</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.3772213981151051</v>
+        <v>-0.6062890021673325</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.9583363036708832</v>
+        <v>-1.02740855930461</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.414661600207965</v>
+        <v>-4.363679397007143</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-1.447180010646997</v>
+        <v>-1.77915104021467</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.004202204394430583</v>
+        <v>-0.006532419817645603</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.009800316068824528</v>
+        <v>-0.01041493988085227</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.04527018799247691</v>
+        <v>-0.0452686036251051</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.01625562022115836</v>
+        <v>-0.01953260743659914</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.943971153043623</v>
+        <v>7.23341103018443</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.9739698127608</v>
+        <v>4.95009589287287</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.425239432395353</v>
+        <v>1.574545814850859</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.655404205735143</v>
+        <v>5.228836145253267</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07758343308006753</v>
+        <v>0.08150783244392551</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05343544371602612</v>
+        <v>0.0531661434789478</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01506788474825349</v>
+        <v>0.01661697466099936</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.06644795822529585</v>
+        <v>0.06066235689503043</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>3.901749551902733</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.014523829823888</v>
+        <v>1.014523829823877</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01662217290558997</v>
@@ -1249,7 +1249,7 @@
         <v>0.04139652269742996</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.01131677014642262</v>
+        <v>0.01131677014642249</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.400736247737716</v>
+        <v>-1.443573312948754</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.858473657826348</v>
+        <v>-1.9839219296141</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.4428149255139</v>
+        <v>0.8794928810307797</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.408887547941785</v>
+        <v>-2.648033871315999</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.01458741542549208</v>
+        <v>-0.0147253687056935</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.01922532371162573</v>
+        <v>-0.02049653614424059</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01461604611151661</v>
+        <v>0.009322670269965742</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.02615063082735335</v>
+        <v>-0.02860445494356399</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.687955956688883</v>
+        <v>5.2952627277035</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.67063077352644</v>
+        <v>6.219694670048527</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.443525948162426</v>
+        <v>7.435459679355606</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.61675305832316</v>
+        <v>4.620377173872075</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.06135010264349877</v>
+        <v>0.05785476556864592</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06221561566518354</v>
+        <v>0.06865681977721994</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08106374939671433</v>
+        <v>0.08223241138009919</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.05270478411142049</v>
+        <v>0.05320239678583644</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>2.302996613262909</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1.793283746079388</v>
+        <v>1.793283746079399</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01538686328443688</v>
@@ -1349,7 +1349,7 @@
         <v>0.02510012014074686</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.02057207611430165</v>
+        <v>0.02057207611430178</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3384333181361648</v>
+        <v>0.1477182560094944</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.3485627319699806</v>
+        <v>-0.3139058861785943</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9388634714572957</v>
+        <v>0.9641236314466941</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.338275553240613</v>
+        <v>0.3661106948455792</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.003624409155525689</v>
+        <v>0.001627622275431943</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.003634539238661103</v>
+        <v>-0.003340787468238992</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01013084407355338</v>
+        <v>0.0104290022039794</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.003842271803370346</v>
+        <v>0.004030287385162734</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.785043233127321</v>
+        <v>2.674279269159337</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.013816038931874</v>
+        <v>2.127912311285758</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.466557451436246</v>
+        <v>3.500636703804009</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.544074539999537</v>
+        <v>3.514980937823617</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.03023074026778715</v>
+        <v>0.02915325585559325</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02176946878257855</v>
+        <v>0.0230757546864684</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03812064916120269</v>
+        <v>0.03848496633025054</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.0411695565876873</v>
+        <v>0.04080486740365048</v>
       </c>
     </row>
     <row r="28">
